--- a/data/trans_orig/P05B-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P05B-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>3642</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10904</v>
+        <v>12557</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.005254370596959645</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.001305184563121957</v>
+        <v>0.001301808791916148</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.015733482049584</v>
+        <v>0.01811795988578314</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6728</v>
+        <v>5919</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.002804165164570676</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.009774136292274268</v>
+        <v>0.008598896348732895</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -786,19 +786,19 @@
         <v>5572</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1849</v>
+        <v>1844</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>13484</v>
+        <v>13209</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.004033450163083941</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001338733191689101</v>
+        <v>0.001334706496639987</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.009761081292950282</v>
+        <v>0.009562223046644037</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>10510</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5557</v>
+        <v>5660</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>17604</v>
+        <v>17586</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01516470686207074</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.008017873882457045</v>
+        <v>0.008166697452574836</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02540037142792546</v>
+        <v>0.02537467380988843</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>19</v>
@@ -836,19 +836,19 @@
         <v>18261</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>11590</v>
+        <v>10907</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>28538</v>
+        <v>29179</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0265286599236924</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01683744348580301</v>
+        <v>0.01584497242079046</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04145921577850077</v>
+        <v>0.04238901676337769</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>30</v>
@@ -857,19 +857,19 @@
         <v>28771</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>19786</v>
+        <v>19336</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>40884</v>
+        <v>40668</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02082728613772377</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01432270114321223</v>
+        <v>0.01399743529942507</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02959575139651031</v>
+        <v>0.02943928325981175</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>60202</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>47863</v>
+        <v>45542</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>78486</v>
+        <v>75641</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.08686267067616885</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.06905978338829111</v>
+        <v>0.06571097799091667</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1132440849963447</v>
+        <v>0.1091398289693131</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>78</v>
@@ -907,19 +907,19 @@
         <v>77375</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>62299</v>
+        <v>62302</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>93341</v>
+        <v>95405</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1124060512142727</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.09050467353328523</v>
+        <v>0.09050955154770537</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1356006559795302</v>
+        <v>0.1386000552776499</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>134</v>
@@ -928,19 +928,19 @@
         <v>137576</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>115326</v>
+        <v>116694</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>160342</v>
+        <v>161262</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.09959076067098489</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.08348354991029006</v>
+        <v>0.08447399929481737</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1160705961075411</v>
+        <v>0.1167368102211319</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>535966</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>511960</v>
+        <v>512353</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>556769</v>
+        <v>557804</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.773324969967034</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7386873959191017</v>
+        <v>0.7392548363327929</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.803340954549172</v>
+        <v>0.8048339554524813</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>518</v>
@@ -978,19 +978,19 @@
         <v>508192</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>484863</v>
+        <v>484128</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>529801</v>
+        <v>531265</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7382744202316658</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7043829461573123</v>
+        <v>0.7033155180502559</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7696675018910357</v>
+        <v>0.7717931983905295</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1045</v>
@@ -999,19 +999,19 @@
         <v>1044158</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1011836</v>
+        <v>1010416</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1076877</v>
+        <v>1073620</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7558595232641576</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7324621063372422</v>
+        <v>0.7314341816413206</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7795444639938512</v>
+        <v>0.7771868430120111</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>82748</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>66990</v>
+        <v>65342</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>100535</v>
+        <v>100673</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1193932818977667</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.09665752087035683</v>
+        <v>0.09427893335638862</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1450583660096422</v>
+        <v>0.1452578638742272</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>79</v>
@@ -1049,19 +1049,19 @@
         <v>82593</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>66247</v>
+        <v>66379</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>100165</v>
+        <v>100300</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1199867034657984</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.09624064547423815</v>
+        <v>0.09643243134968386</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1455146844467272</v>
+        <v>0.1457099660670098</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>164</v>
@@ -1070,19 +1070,19 @@
         <v>165341</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>142257</v>
+        <v>142274</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>190637</v>
+        <v>189715</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1196889797640497</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1029786338224365</v>
+        <v>0.1029909961185484</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1380009798325541</v>
+        <v>0.1373336099272288</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>3118</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8582</v>
+        <v>8417</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.003241340816620094</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0009570037987806815</v>
+        <v>0.0009570990939434494</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.008922381617690142</v>
+        <v>0.008751450483392416</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -1195,19 +1195,19 @@
         <v>4815</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1737</v>
+        <v>1727</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>11111</v>
+        <v>10496</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.004980928040744837</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.00179702701974354</v>
+        <v>0.001786049859718337</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0114933704242444</v>
+        <v>0.01085652387849573</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>8</v>
@@ -1216,19 +1216,19 @@
         <v>7933</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3474</v>
+        <v>3015</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>15545</v>
+        <v>14463</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.004113375444601558</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001801288175643984</v>
+        <v>0.001563285213013031</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.008060490921313822</v>
+        <v>0.007499418924284748</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>19415</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>11580</v>
+        <v>11291</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>29760</v>
+        <v>30177</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02018576905675579</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01204036373108907</v>
+        <v>0.01173940479567447</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03094250073890819</v>
+        <v>0.0313760365295374</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>36</v>
@@ -1266,19 +1266,19 @@
         <v>37911</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>27154</v>
+        <v>27490</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>52101</v>
+        <v>51912</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03921432054237139</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02808760027120139</v>
+        <v>0.02843489831341726</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.05389180090954779</v>
+        <v>0.05369656829825546</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>54</v>
@@ -1287,19 +1287,19 @@
         <v>57326</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>44388</v>
+        <v>43133</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>74843</v>
+        <v>74669</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02972455825091869</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02301620495203587</v>
+        <v>0.02236551598684642</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03880766778374591</v>
+        <v>0.03871715240617496</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>168713</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>145399</v>
+        <v>144765</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>196581</v>
+        <v>194630</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.175413591399201</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1511734721950112</v>
+        <v>0.1505148944984935</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2043882488668516</v>
+        <v>0.2023599615116055</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>148</v>
@@ -1337,19 +1337,19 @@
         <v>160274</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>138484</v>
+        <v>138645</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>185853</v>
+        <v>184883</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1657834758608411</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.143244591197074</v>
+        <v>0.1434109122080061</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1922412413582099</v>
+        <v>0.1912382611270476</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>306</v>
@@ -1358,19 +1358,19 @@
         <v>328987</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>297170</v>
+        <v>295305</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>363048</v>
+        <v>370753</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1705861276742145</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1540882922819717</v>
+        <v>0.1531210556080803</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1882471630650403</v>
+        <v>0.1922426517896512</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>639833</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>608074</v>
+        <v>608859</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>670232</v>
+        <v>671633</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6652450998357904</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6322245432567257</v>
+        <v>0.6330415978261433</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6968520755693982</v>
+        <v>0.6983085568744826</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>613</v>
@@ -1408,19 +1408,19 @@
         <v>648194</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>617461</v>
+        <v>614427</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>677469</v>
+        <v>675308</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.670474767607666</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.638685296649064</v>
+        <v>0.6355463957961738</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7007556283203994</v>
+        <v>0.6985203523598058</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1216</v>
@@ -1429,19 +1429,19 @@
         <v>1288027</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1243850</v>
+        <v>1244991</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1328144</v>
+        <v>1331018</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6678666708192222</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6449602489306263</v>
+        <v>0.6455514592917112</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6886683416317769</v>
+        <v>0.6901583082382594</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>130722</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>106732</v>
+        <v>108290</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>154769</v>
+        <v>153740</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1359141988916327</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1109713681364512</v>
+        <v>0.1125910893182098</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1609158098979699</v>
+        <v>0.1598460525138921</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>105</v>
@@ -1479,19 +1479,19 @@
         <v>115574</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>97092</v>
+        <v>97487</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>136940</v>
+        <v>139427</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1195465079483767</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1004289910517731</v>
+        <v>0.1008379301200726</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.141646687472411</v>
+        <v>0.1442199085237785</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>219</v>
@@ -1500,19 +1500,19 @@
         <v>246296</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>216123</v>
+        <v>215914</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>279125</v>
+        <v>275571</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.127709267811043</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1120638906706206</v>
+        <v>0.1119552956035787</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1447314190212486</v>
+        <v>0.1428886178107032</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>5059</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13167</v>
+        <v>12935</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.007455666510300898</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001581478356014955</v>
+        <v>0.001578116716932521</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01940526612726415</v>
+        <v>0.01906329266784557</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -1625,19 +1625,19 @@
         <v>3240</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9555</v>
+        <v>9797</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.004737289301114066</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.001172943524584799</v>
+        <v>0.001179524607391233</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01397210067742691</v>
+        <v>0.0143259490082134</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -1646,19 +1646,19 @@
         <v>8298</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3784</v>
+        <v>3563</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>17693</v>
+        <v>15690</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.006091158157759072</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.002777206254954647</v>
+        <v>0.002615573990821821</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01298719301307456</v>
+        <v>0.01151715003699925</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>11259</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5938</v>
+        <v>5869</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>21482</v>
+        <v>21875</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01659390261586131</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.008750923658758953</v>
+        <v>0.008650580699415957</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03166086319051017</v>
+        <v>0.03224006300041311</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>24</v>
@@ -1696,19 +1696,19 @@
         <v>23524</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>15028</v>
+        <v>14920</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>33360</v>
+        <v>34206</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03439942705985444</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02197658844342776</v>
+        <v>0.02181853886196722</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04878264851824293</v>
+        <v>0.05002008995877062</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>34</v>
@@ -1717,19 +1717,19 @@
         <v>34783</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>24446</v>
+        <v>23300</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>49083</v>
+        <v>47332</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0255315094877509</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01794392884275327</v>
+        <v>0.01710260495552978</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03602798714749313</v>
+        <v>0.03474301927598109</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>158610</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>135518</v>
+        <v>135303</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>181041</v>
+        <v>183773</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2337632482077449</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1997293722794665</v>
+        <v>0.199411971202188</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2668210981561745</v>
+        <v>0.2708486324730445</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>161</v>
@@ -1767,19 +1767,19 @@
         <v>158802</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>139052</v>
+        <v>137084</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>181917</v>
+        <v>182387</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2322203331008166</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2033400293409666</v>
+        <v>0.2004623465658419</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.266022280878151</v>
+        <v>0.2667096256567188</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>309</v>
@@ -1788,19 +1788,19 @@
         <v>317412</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>284842</v>
+        <v>285141</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>347145</v>
+        <v>344823</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2329887712353984</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2090810977427316</v>
+        <v>0.2093006409849698</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2548132680853377</v>
+        <v>0.2531089589962223</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>451228</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>427800</v>
+        <v>421467</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>477830</v>
+        <v>474112</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.6650283423401634</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.6304999069135141</v>
+        <v>0.6211667391109112</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.7042359271971617</v>
+        <v>0.6987555008869251</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>447</v>
@@ -1838,19 +1838,19 @@
         <v>441374</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>415608</v>
+        <v>415263</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>463836</v>
+        <v>464707</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6454333716356896</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6077552141174128</v>
+        <v>0.6072511243766915</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6782806918178181</v>
+        <v>0.6795544638414391</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>873</v>
@@ -1859,19 +1859,19 @@
         <v>892602</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>859724</v>
+        <v>857784</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>930841</v>
+        <v>923919</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.6551925104682265</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6310593763056123</v>
+        <v>0.6296353022942032</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6832616059152316</v>
+        <v>0.6781800040990301</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>52353</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>40049</v>
+        <v>39868</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>67469</v>
+        <v>67149</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0771588403259296</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05902523323697707</v>
+        <v>0.05875763732482915</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.09943728037660812</v>
+        <v>0.09896580786556763</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>61</v>
@@ -1909,19 +1909,19 @@
         <v>56902</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>44165</v>
+        <v>45501</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>71891</v>
+        <v>73681</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.08320957890252527</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06458407479279366</v>
+        <v>0.06653759180766751</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1051285416737324</v>
+        <v>0.1077451424178322</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>114</v>
@@ -1930,19 +1930,19 @@
         <v>109255</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>90475</v>
+        <v>90301</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>129617</v>
+        <v>128369</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.08019605065086519</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.06641119437291644</v>
+        <v>0.06628354978310724</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.095142028884309</v>
+        <v>0.09422623165552874</v>
       </c>
     </row>
     <row r="21">
@@ -2034,19 +2034,19 @@
         <v>9850</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4898</v>
+        <v>5191</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>17839</v>
+        <v>17875</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01048927734328255</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.00521592482525674</v>
+        <v>0.005527778316654824</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01899687702299054</v>
+        <v>0.01903480775110049</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>10</v>
@@ -2055,19 +2055,19 @@
         <v>10155</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>5099</v>
+        <v>4956</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>17926</v>
+        <v>18707</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.009777416445682302</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.004909328860726991</v>
+        <v>0.004772088016496279</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01725917827483698</v>
+        <v>0.01801169344175008</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>20</v>
@@ -2076,19 +2076,19 @@
         <v>20005</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>12215</v>
+        <v>12420</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>30234</v>
+        <v>30383</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0101154277120341</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.00617642263183944</v>
+        <v>0.006280063033667935</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01528762234838592</v>
+        <v>0.01536291790739046</v>
       </c>
     </row>
     <row r="23">
@@ -2105,19 +2105,19 @@
         <v>33505</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>23920</v>
+        <v>23175</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>46639</v>
+        <v>45220</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.03568028256188389</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02547309518198695</v>
+        <v>0.02467937083288032</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.04966644643139795</v>
+        <v>0.04815564931297291</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>56</v>
@@ -2126,19 +2126,19 @@
         <v>58446</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>46175</v>
+        <v>44438</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>77161</v>
+        <v>74228</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.05627285056556012</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.04445807444634018</v>
+        <v>0.04278582084494928</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.07429219953526975</v>
+        <v>0.07146836949143559</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>91</v>
@@ -2147,19 +2147,19 @@
         <v>91951</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>74178</v>
+        <v>74452</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>112002</v>
+        <v>112333</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.04649492904771492</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.03750779913479313</v>
+        <v>0.03764666257309286</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.05663343531758333</v>
+        <v>0.05680074304628906</v>
       </c>
     </row>
     <row r="24">
@@ -2176,19 +2176,19 @@
         <v>276463</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>249700</v>
+        <v>249587</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>302774</v>
+        <v>302873</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2944072772235456</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2659080788121235</v>
+        <v>0.2657869194167941</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3224264100824979</v>
+        <v>0.3225318546260212</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>293</v>
@@ -2197,19 +2197,19 @@
         <v>308948</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>281090</v>
+        <v>279578</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>341419</v>
+        <v>341430</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2974626964069435</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2706403062874319</v>
+        <v>0.2691838808319846</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3287260332124188</v>
+        <v>0.3287365286490259</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>583</v>
@@ -2218,19 +2218,19 @@
         <v>585411</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>549393</v>
+        <v>546609</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>626118</v>
+        <v>625071</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2960118987709202</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2777997185191035</v>
+        <v>0.2763919495694113</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3165952428995431</v>
+        <v>0.3160662049206729</v>
       </c>
     </row>
     <row r="25">
@@ -2247,19 +2247,19 @@
         <v>529097</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>500569</v>
+        <v>501353</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>557639</v>
+        <v>559090</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.5634394905821184</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.5330602160693946</v>
+        <v>0.5338946585103223</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5938339689700857</v>
+        <v>0.5953792679329271</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>570</v>
@@ -2268,19 +2268,19 @@
         <v>590063</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>557692</v>
+        <v>556753</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>623242</v>
+        <v>621462</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.5681267822169584</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.5369586518065042</v>
+        <v>0.5360544190869069</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.6000720138628989</v>
+        <v>0.5983582932936187</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1131</v>
@@ -2289,19 +2289,19 @@
         <v>1119160</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1076032</v>
+        <v>1069962</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1163177</v>
+        <v>1161933</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.565901126352739</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.5440937249834414</v>
+        <v>0.54102405658764</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5881580757264233</v>
+        <v>0.5875292469435982</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>90133</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>72309</v>
+        <v>73835</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>110073</v>
+        <v>110950</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.09598367228916958</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.07700271451723778</v>
+        <v>0.07862779362877022</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.117218012684326</v>
+        <v>0.1181519770316301</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>68</v>
@@ -2339,19 +2339,19 @@
         <v>71000</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>56619</v>
+        <v>56596</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>88941</v>
+        <v>90087</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.06836025436485564</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.05451438902267285</v>
+        <v>0.05449201920484554</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.08563406096736363</v>
+        <v>0.08673773631325475</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>163</v>
@@ -2360,19 +2360,19 @@
         <v>161133</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>136769</v>
+        <v>139980</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>187085</v>
+        <v>190283</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.08147661811659176</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.06915694258508431</v>
+        <v>0.07078068984015536</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.0945992297239367</v>
+        <v>0.09621598669220736</v>
       </c>
     </row>
     <row r="27">
@@ -2464,19 +2464,19 @@
         <v>21668</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>13142</v>
+        <v>13058</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>33679</v>
+        <v>33420</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.006621337010232728</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.004016056411445541</v>
+        <v>0.003990288630947694</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01029178232410889</v>
+        <v>0.01021256551642611</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>20</v>
@@ -2485,19 +2485,19 @@
         <v>20140</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>12769</v>
+        <v>12289</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>29945</v>
+        <v>30089</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.005962906283144597</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.003780548539434689</v>
+        <v>0.003638536158768079</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.00886590729219114</v>
+        <v>0.008908439633531716</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>40</v>
@@ -2506,19 +2506,19 @@
         <v>41808</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>30362</v>
+        <v>30500</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>56588</v>
+        <v>56219</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.006286916097572996</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.00456564737693201</v>
+        <v>0.004586418926423389</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.008509461171006937</v>
+        <v>0.008454017909885227</v>
       </c>
     </row>
     <row r="29">
@@ -2535,19 +2535,19 @@
         <v>74689</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>59976</v>
+        <v>58206</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>92642</v>
+        <v>93419</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02282388676144004</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01832784173255952</v>
+        <v>0.01778673364988813</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.0283098124196299</v>
+        <v>0.02854723331262644</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>135</v>
@@ -2556,19 +2556,19 @@
         <v>138142</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>116704</v>
+        <v>117299</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>163379</v>
+        <v>163331</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.04089966810089239</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03455275075200866</v>
+        <v>0.03472876230439622</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.04837167596481669</v>
+        <v>0.04835736959763497</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>209</v>
@@ -2577,19 +2577,19 @@
         <v>212831</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>186773</v>
+        <v>187767</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>242279</v>
+        <v>243847</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03200468444278563</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02808623745448365</v>
+        <v>0.02823571027912907</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03643293690310308</v>
+        <v>0.03666873897778088</v>
       </c>
     </row>
     <row r="30">
@@ -2606,19 +2606,19 @@
         <v>663987</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>621259</v>
+        <v>625011</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>710060</v>
+        <v>710617</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2029038519495868</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.189846869153695</v>
+        <v>0.1909932594296246</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2169829194438007</v>
+        <v>0.2171532395577957</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>680</v>
@@ -2627,19 +2627,19 @@
         <v>705399</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>656219</v>
+        <v>655851</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>747038</v>
+        <v>747292</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2088479672066579</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1942872740511924</v>
+        <v>0.1941781289090133</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2211760356852089</v>
+        <v>0.2212511425364289</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1332</v>
@@ -2648,19 +2648,19 @@
         <v>1369387</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1296721</v>
+        <v>1302202</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1431358</v>
+        <v>1433193</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2059229037153138</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1949957097625547</v>
+        <v>0.1958199012295556</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2152418374539748</v>
+        <v>0.2155178378545494</v>
       </c>
     </row>
     <row r="31">
@@ -2677,19 +2677,19 @@
         <v>2156123</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>2097920</v>
+        <v>2092560</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>2207961</v>
+        <v>2207467</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.6588764894581106</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.6410905225259925</v>
+        <v>0.6394525161351515</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.6747173506728847</v>
+        <v>0.6745662244941978</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>2148</v>
@@ -2698,19 +2698,19 @@
         <v>2187823</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>2136248</v>
+        <v>2132973</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>2248582</v>
+        <v>2244104</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.6477501012469195</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.6324801520396365</v>
+        <v>0.6315106071809781</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.665739053653408</v>
+        <v>0.6644132993488278</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>4265</v>
@@ -2719,19 +2719,19 @@
         <v>4343946</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>4276603</v>
+        <v>4269916</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>4425028</v>
+        <v>4423089</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.6532253301985049</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.6430984403732632</v>
+        <v>0.6420928769997788</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.6654180676813152</v>
+        <v>0.66512651273668</v>
       </c>
     </row>
     <row r="32">
@@ -2748,19 +2748,19 @@
         <v>355956</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>320528</v>
+        <v>320110</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>392511</v>
+        <v>392553</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1087744348206298</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.09794820221991714</v>
+        <v>0.09782051590981329</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1199451425349721</v>
+        <v>0.1199579263067036</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>313</v>
@@ -2769,19 +2769,19 @@
         <v>326069</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>291871</v>
+        <v>294110</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>361795</v>
+        <v>360831</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.09653935716238567</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.08641451962206453</v>
+        <v>0.08707743410533718</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1071169627052387</v>
+        <v>0.1068313223519793</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>660</v>
@@ -2790,19 +2790,19 @@
         <v>682025</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>635541</v>
+        <v>633795</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>733846</v>
+        <v>732943</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1025601655458227</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.09557010074545337</v>
+        <v>0.09530749141229646</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1103528226570631</v>
+        <v>0.1102170967543713</v>
       </c>
     </row>
     <row r="33">
@@ -3137,7 +3137,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6757</v>
+        <v>5885</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002459613716841052</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.009605560663963935</v>
+        <v>0.008365918480979038</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5221</v>
+        <v>4697</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.001351117821617483</v>
@@ -3167,7 +3167,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.007513367024630074</v>
+        <v>0.006759415932623815</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -3176,19 +3176,19 @@
         <v>2669</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7208</v>
+        <v>7796</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001908771747929727</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0005147269289487003</v>
+        <v>0.0005174891087942932</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.005154742556118664</v>
+        <v>0.005575159297210586</v>
       </c>
     </row>
     <row r="5">
@@ -3221,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5849</v>
+        <v>6771</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.002779730588599512</v>
@@ -3230,7 +3230,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.008417434737111925</v>
+        <v>0.009743795526879781</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2</v>
@@ -3242,7 +3242,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>6821</v>
+        <v>5849</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.001381324258452368</v>
@@ -3251,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.004877553746295745</v>
+        <v>0.004182676208059104</v>
       </c>
     </row>
     <row r="6">
@@ -3268,19 +3268,19 @@
         <v>29750</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>20759</v>
+        <v>20458</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>42711</v>
+        <v>41721</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.04229058681823421</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02951007856522904</v>
+        <v>0.02908192489711707</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.06071422632254551</v>
+        <v>0.05930774813944453</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>45</v>
@@ -3289,19 +3289,19 @@
         <v>50385</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>38712</v>
+        <v>38119</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>65694</v>
+        <v>69397</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.07250967193999291</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.05571126733051183</v>
+        <v>0.05485751300229649</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.09454077761371815</v>
+        <v>0.09986976212085386</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>75</v>
@@ -3310,19 +3310,19 @@
         <v>80135</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>61618</v>
+        <v>62870</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>97929</v>
+        <v>98299</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.05730727783070856</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.04406488844716086</v>
+        <v>0.04496003748111053</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.07003183926411555</v>
+        <v>0.07029657572013026</v>
       </c>
     </row>
     <row r="7">
@@ -3339,19 +3339,19 @@
         <v>526906</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>502971</v>
+        <v>503114</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>547175</v>
+        <v>549826</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7490108642237852</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7149862985151149</v>
+        <v>0.7151903113725292</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7778237900629531</v>
+        <v>0.7815922409340141</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>475</v>
@@ -3360,19 +3360,19 @@
         <v>505739</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>481304</v>
+        <v>481360</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>528350</v>
+        <v>532291</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7278117100688436</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6926480193908431</v>
+        <v>0.6927280892587482</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7603517058840094</v>
+        <v>0.7660227890289546</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>977</v>
@@ -3381,19 +3381,19 @@
         <v>1032645</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>998020</v>
+        <v>992244</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1066448</v>
+        <v>1063230</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.73847642393918</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7137150967400073</v>
+        <v>0.7095842314595341</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.76265006278805</v>
+        <v>0.7603485187075666</v>
       </c>
     </row>
     <row r="8">
@@ -3410,19 +3410,19 @@
         <v>145083</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>124742</v>
+        <v>124102</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>168701</v>
+        <v>168430</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2062389352411395</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1773236599162572</v>
+        <v>0.1764139365715431</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2398136247231011</v>
+        <v>0.239428325433228</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>125</v>
@@ -3431,19 +3431,19 @@
         <v>135881</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>116574</v>
+        <v>115924</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>157099</v>
+        <v>157908</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1955477695809465</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.167761844335352</v>
+        <v>0.1668269445703466</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2260819578358777</v>
+        <v>0.2272469032850637</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>265</v>
@@ -3452,19 +3452,19 @@
         <v>280964</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>250984</v>
+        <v>250880</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>311924</v>
+        <v>313976</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2009262022237294</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1794863991369048</v>
+        <v>0.1794118966175977</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.223066757635615</v>
+        <v>0.2245341757455921</v>
       </c>
     </row>
     <row r="9">
@@ -3556,19 +3556,19 @@
         <v>5096</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1060</v>
+        <v>1913</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13244</v>
+        <v>13098</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.005025685541616776</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001045432767872456</v>
+        <v>0.001886683031835627</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01306152002544073</v>
+        <v>0.01291709681600093</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -3577,19 +3577,19 @@
         <v>5456</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2122</v>
+        <v>2119</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>12130</v>
+        <v>11880</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.005308292263539023</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.002063995896501968</v>
+        <v>0.002061566371080912</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01180057454621334</v>
+        <v>0.01155782229728078</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>9</v>
@@ -3598,19 +3598,19 @@
         <v>10552</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5221</v>
+        <v>5246</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>19917</v>
+        <v>21228</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.005167952251271884</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002556678289328433</v>
+        <v>0.00256914223287432</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.009754305173229054</v>
+        <v>0.01039626567672562</v>
       </c>
     </row>
     <row r="11">
@@ -3627,19 +3627,19 @@
         <v>11355</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6045</v>
+        <v>6091</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>19446</v>
+        <v>19919</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01119873706865786</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.005961407190533884</v>
+        <v>0.006007411057722955</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01917719673990256</v>
+        <v>0.01964411644662159</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>18</v>
@@ -3648,19 +3648,19 @@
         <v>20845</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>13534</v>
+        <v>12903</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>33515</v>
+        <v>32448</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02027847376188472</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01316649853998194</v>
+        <v>0.01255288412241303</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03260507300467212</v>
+        <v>0.03156721963954693</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>29</v>
@@ -3669,19 +3669,19 @@
         <v>32200</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>22126</v>
+        <v>22608</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>47618</v>
+        <v>47508</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01576955638637929</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01083610721958602</v>
+        <v>0.01107183008488657</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02332013882085113</v>
+        <v>0.02326641838254475</v>
       </c>
     </row>
     <row r="12">
@@ -3698,19 +3698,19 @@
         <v>124897</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>105234</v>
+        <v>103368</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>150381</v>
+        <v>149417</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1231727489925665</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1037816504821727</v>
+        <v>0.1019412548882722</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1483055014589207</v>
+        <v>0.1473548126362669</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>115</v>
@@ -3719,19 +3719,19 @@
         <v>127553</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>106889</v>
+        <v>105786</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>149653</v>
+        <v>149043</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1240893305045648</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1039863408177705</v>
+        <v>0.1029135430169072</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.145588769760664</v>
+        <v>0.1449949841549641</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>225</v>
@@ -3740,19 +3740,19 @@
         <v>252450</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>221893</v>
+        <v>224378</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>283936</v>
+        <v>286420</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1236341641880571</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1086693989839005</v>
+        <v>0.1098865409824456</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1390542258096443</v>
+        <v>0.1402705148053262</v>
       </c>
     </row>
     <row r="13">
@@ -3769,19 +3769,19 @@
         <v>785780</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>757299</v>
+        <v>758656</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>813102</v>
+        <v>814261</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7749347648198168</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7468468715484543</v>
+        <v>0.7481846900129916</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8018793207180944</v>
+        <v>0.8030227803097681</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>724</v>
@@ -3790,19 +3790,19 @@
         <v>794340</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>765253</v>
+        <v>765090</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>821812</v>
+        <v>821932</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7727678197354521</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7444701856049977</v>
+        <v>0.7443120572425671</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7994936181158228</v>
+        <v>0.7996099769177814</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1449</v>
@@ -3811,19 +3811,19 @@
         <v>1580120</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1543236</v>
+        <v>1536801</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1618109</v>
+        <v>1616708</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.773843905603663</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7557808243193588</v>
+        <v>0.7526293528223504</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.792448711514224</v>
+        <v>0.7917625164663312</v>
       </c>
     </row>
     <row r="14">
@@ -3840,19 +3840,19 @@
         <v>86867</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>69129</v>
+        <v>69309</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>105596</v>
+        <v>107157</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.08566806357734198</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.06817499925784042</v>
+        <v>0.06835232539187285</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1041388094409054</v>
+        <v>0.1056784954397086</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>74</v>
@@ -3861,19 +3861,19 @@
         <v>79721</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>64581</v>
+        <v>62694</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>98907</v>
+        <v>100451</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.07755608373455947</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.06282750085357745</v>
+        <v>0.06099174281477328</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.09622102622602292</v>
+        <v>0.09772267020412824</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>156</v>
@@ -3882,19 +3882,19 @@
         <v>166588</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>142585</v>
+        <v>142689</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>193037</v>
+        <v>194587</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0815844215706287</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0698291609811084</v>
+        <v>0.06988037800208438</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.09453749215507216</v>
+        <v>0.09529663487839882</v>
       </c>
     </row>
     <row r="15">
@@ -3986,19 +3986,19 @@
         <v>2844</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>883</v>
+        <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7718</v>
+        <v>7673</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.003754308099244202</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001165144653281503</v>
+        <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01018774344275166</v>
+        <v>0.01012728231914931</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -4010,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5543</v>
+        <v>5978</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.001430491652139178</v>
@@ -4019,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.007152265691259234</v>
+        <v>0.007714136992067115</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4</v>
@@ -4028,19 +4028,19 @@
         <v>3953</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1009</v>
+        <v>1106</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>9740</v>
+        <v>9867</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.002579245518483501</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0006580757301298973</v>
+        <v>0.0007216923220192735</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.006355130815198038</v>
+        <v>0.006437869971649086</v>
       </c>
     </row>
     <row r="17">
@@ -4057,19 +4057,19 @@
         <v>12856</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6378</v>
+        <v>6302</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>22870</v>
+        <v>24013</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01696949218176933</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.008417779579754045</v>
+        <v>0.008317755711374946</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03018656542314416</v>
+        <v>0.03169505240561195</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>7</v>
@@ -4078,19 +4078,19 @@
         <v>7347</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3141</v>
+        <v>3164</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>15371</v>
+        <v>15019</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.00948035886484707</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.004052506567349801</v>
+        <v>0.004083335651253086</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01983484181942391</v>
+        <v>0.01937968898754974</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>18</v>
@@ -4099,19 +4099,19 @@
         <v>20204</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>11787</v>
+        <v>12754</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>32423</v>
+        <v>32144</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01318253201372044</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.007690756798152371</v>
+        <v>0.008321535968633218</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02115561655372949</v>
+        <v>0.02097374982177997</v>
       </c>
     </row>
     <row r="18">
@@ -4128,19 +4128,19 @@
         <v>111464</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>91192</v>
+        <v>89870</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>134286</v>
+        <v>132364</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1471228579955081</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1203660121975949</v>
+        <v>0.1186212410035431</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1772470585292955</v>
+        <v>0.1747096469276994</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>108</v>
@@ -4149,19 +4149,19 @@
         <v>119942</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>99405</v>
+        <v>99180</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>142294</v>
+        <v>141562</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1547685008431553</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1282684514078763</v>
+        <v>0.1279783950417002</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1836107696763661</v>
+        <v>0.1826672460709525</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>206</v>
@@ -4170,19 +4170,19 @@
         <v>231405</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>201112</v>
+        <v>200875</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>261227</v>
+        <v>261617</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1509889588776682</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.131222926581952</v>
+        <v>0.1310685629702848</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1704474972378509</v>
+        <v>0.1707013977319518</v>
       </c>
     </row>
     <row r="19">
@@ -4199,19 +4199,19 @@
         <v>529414</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>502075</v>
+        <v>499414</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>556079</v>
+        <v>555377</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.6987833883155751</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.6626979389044694</v>
+        <v>0.6591853508079519</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.7339779158962778</v>
+        <v>0.7330520159733676</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>502</v>
@@ -4220,19 +4220,19 @@
         <v>553602</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>525776</v>
+        <v>528393</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>577830</v>
+        <v>582109</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.7143496555027928</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6784438440428998</v>
+        <v>0.6818203520225241</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7456115938209462</v>
+        <v>0.7511342187469858</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>987</v>
@@ -4241,19 +4241,19 @@
         <v>1083017</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1047584</v>
+        <v>1046506</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1120165</v>
+        <v>1120247</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.7066546374052395</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6835345547963086</v>
+        <v>0.6828311163138204</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7308931437435684</v>
+        <v>0.7309460805331499</v>
       </c>
     </row>
     <row r="20">
@@ -4270,19 +4270,19 @@
         <v>101044</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>81768</v>
+        <v>80880</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>124178</v>
+        <v>122006</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1333699534079033</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1079276190384916</v>
+        <v>0.1067545615917338</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1639053896958617</v>
+        <v>0.1610375364181057</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>85</v>
@@ -4291,19 +4291,19 @@
         <v>92974</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>76106</v>
+        <v>72919</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>114072</v>
+        <v>111038</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1199709931370656</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.09820488825392278</v>
+        <v>0.09409269997532418</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1471947045994707</v>
+        <v>0.143279288852767</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>177</v>
@@ -4312,19 +4312,19 @@
         <v>194019</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>168194</v>
+        <v>165000</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>224389</v>
+        <v>220672</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1265946261848883</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1097442621169924</v>
+        <v>0.1076603846227087</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1464111682498996</v>
+        <v>0.1439854733622527</v>
       </c>
     </row>
     <row r="21">
@@ -4416,19 +4416,19 @@
         <v>4713</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1845</v>
+        <v>1860</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>12877</v>
+        <v>12092</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.005025733200613893</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.001967684222918813</v>
+        <v>0.001983884703276213</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01373197567765254</v>
+        <v>0.01289484643093942</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2</v>
@@ -4440,7 +4440,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>6776</v>
+        <v>6003</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.001835437010585106</v>
@@ -4449,7 +4449,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.006491791117516256</v>
+        <v>0.005750875177991637</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>6</v>
@@ -4458,19 +4458,19 @@
         <v>6629</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2800</v>
+        <v>2836</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>14344</v>
+        <v>15058</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.003345168609015185</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.001412968025003832</v>
+        <v>0.001431367544662185</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.007238983179751399</v>
+        <v>0.007598995920043807</v>
       </c>
     </row>
     <row r="23">
@@ -4487,19 +4487,19 @@
         <v>17961</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>11295</v>
+        <v>10751</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>28727</v>
+        <v>27716</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01915373077408258</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01204483766483265</v>
+        <v>0.01146482415150356</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.03063491807611665</v>
+        <v>0.0295574098631099</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>17</v>
@@ -4508,19 +4508,19 @@
         <v>18173</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>10923</v>
+        <v>10788</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>28783</v>
+        <v>28506</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01741032323465339</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01046437468959215</v>
+        <v>0.01033499842117593</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.02757465541214957</v>
+        <v>0.02730929947796624</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>34</v>
@@ -4529,19 +4529,19 @@
         <v>36134</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>24874</v>
+        <v>25254</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>49410</v>
+        <v>50838</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01823534928064999</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01255276444284295</v>
+        <v>0.0127444393864916</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.02493532243500809</v>
+        <v>0.02565572492810527</v>
       </c>
     </row>
     <row r="24">
@@ -4558,19 +4558,19 @@
         <v>199612</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>175286</v>
+        <v>175518</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>228134</v>
+        <v>226809</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2128705256702291</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1869285980586972</v>
+        <v>0.1871758386467016</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2432870165217812</v>
+        <v>0.2418745752178503</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>235</v>
@@ -4579,19 +4579,19 @@
         <v>247281</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>219777</v>
+        <v>220345</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>278184</v>
+        <v>276109</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2368994602894731</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2105505411679267</v>
+        <v>0.211094894161356</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2665053242223354</v>
+        <v>0.2645175206649032</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>427</v>
@@ -4600,19 +4600,19 @@
         <v>446893</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>408644</v>
+        <v>412841</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>489298</v>
+        <v>483629</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2255283399575532</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2062259090315847</v>
+        <v>0.2083441151782895</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2469285282269142</v>
+        <v>0.2440675263640038</v>
       </c>
     </row>
     <row r="25">
@@ -4629,19 +4629,19 @@
         <v>665696</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>638697</v>
+        <v>636751</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>695907</v>
+        <v>692495</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.709912423297542</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.6811209242012854</v>
+        <v>0.6790455473100303</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.7421309598023578</v>
+        <v>0.7384920283504548</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>687</v>
@@ -4650,19 +4650,19 @@
         <v>719303</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>689735</v>
+        <v>691026</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>752136</v>
+        <v>749637</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.6891048241874386</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.6607785855776493</v>
+        <v>0.6620153702430219</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.7205597341235526</v>
+        <v>0.7181651950295722</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1325</v>
@@ -4671,19 +4671,19 @@
         <v>1384998</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1341436</v>
+        <v>1346046</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1428233</v>
+        <v>1424256</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.6989515243033</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.6769679891919536</v>
+        <v>0.6792940097104246</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.7207707036975619</v>
+        <v>0.7187634808528208</v>
       </c>
     </row>
     <row r="26">
@@ -4700,19 +4700,19 @@
         <v>49734</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>37441</v>
+        <v>37590</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>64589</v>
+        <v>64529</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.05303758705753239</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0399279613294054</v>
+        <v>0.04008697180193493</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.06887881055456814</v>
+        <v>0.06881481015603384</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>54</v>
@@ -4721,19 +4721,19 @@
         <v>57149</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>75807</v>
+        <v>73413</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.05474995527784982</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.0420851996541723</v>
+        <v>0.04208527757350274</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.07262436333596997</v>
+        <v>0.07033130506618808</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>103</v>
@@ -4742,19 +4742,19 @@
         <v>106883</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>87749</v>
+        <v>87508</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>127435</v>
+        <v>126930</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.05393961784948165</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.04428337668441049</v>
+        <v>0.04416181361206793</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.06431104015403309</v>
+        <v>0.06405632796173812</v>
       </c>
     </row>
     <row r="27">
@@ -4846,19 +4846,19 @@
         <v>14383</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>8319</v>
+        <v>7983</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>26057</v>
+        <v>25125</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.004214524365580285</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.002437695366721106</v>
+        <v>0.0023390026647719</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.00763503756597227</v>
+        <v>0.007362122737617557</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>9</v>
@@ -4867,19 +4867,19 @@
         <v>9420</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>4356</v>
+        <v>4982</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>17442</v>
+        <v>17015</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.002659767453785662</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.001230042302338488</v>
+        <v>0.001406763739997197</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.004924914836928269</v>
+        <v>0.004804369108782577</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>22</v>
@@ -4888,19 +4888,19 @@
         <v>23803</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>15024</v>
+        <v>15254</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>35879</v>
+        <v>36596</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.003422749952053149</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.002160294190411049</v>
+        <v>0.002193410722198787</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.005159209766498524</v>
+        <v>0.005262305506144028</v>
       </c>
     </row>
     <row r="29">
@@ -4917,19 +4917,19 @@
         <v>42173</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>30155</v>
+        <v>30552</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>58060</v>
+        <v>58140</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01235720171782057</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.008835725934643395</v>
+        <v>0.008952106102007387</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.01701232692611581</v>
+        <v>0.01703583742250053</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>44</v>
@@ -4938,19 +4938,19 @@
         <v>48296</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>35302</v>
+        <v>35502</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>63349</v>
+        <v>64691</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01363694541598599</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.009967876352598463</v>
+        <v>0.0100243923177388</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01788709532646086</v>
+        <v>0.01826614151892479</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>83</v>
@@ -4959,19 +4959,19 @@
         <v>90469</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>71887</v>
+        <v>72743</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>111089</v>
+        <v>109390</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01300892309522251</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.0103369264537419</v>
+        <v>0.01045995335851792</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01597400182341934</v>
+        <v>0.01572969193272068</v>
       </c>
     </row>
     <row r="30">
@@ -4988,19 +4988,19 @@
         <v>465722</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>424813</v>
+        <v>424573</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>508950</v>
+        <v>506354</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1364632972241687</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1244762571315543</v>
+        <v>0.1244059547256562</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1491297912177627</v>
+        <v>0.1483691329801834</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>503</v>
@@ -5009,19 +5009,19 @@
         <v>545161</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>501264</v>
+        <v>501311</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>594876</v>
+        <v>587414</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1539312479631285</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.141536529068499</v>
+        <v>0.1415498411843798</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1679688018241813</v>
+        <v>0.1658617093862293</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>933</v>
@@ -5030,19 +5030,19 @@
         <v>1010883</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>943200</v>
+        <v>954219</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1069834</v>
+        <v>1072222</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.145359013555731</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1356265379502193</v>
+        <v>0.1372110443318622</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1538357353518492</v>
+        <v>0.1541791157003421</v>
       </c>
     </row>
     <row r="31">
@@ -5059,19 +5059,19 @@
         <v>2507796</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>2449581</v>
+        <v>2453219</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>2559265</v>
+        <v>2560196</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.7348201792527629</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.7177624864719931</v>
+        <v>0.7188284544592383</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.7499014837296956</v>
+        <v>0.7501741209578969</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>2388</v>
@@ -5080,19 +5080,19 @@
         <v>2572984</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>2512291</v>
+        <v>2518401</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>2624973</v>
+        <v>2624637</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.726505871752447</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.7093687009190768</v>
+        <v>0.7110938821390929</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.7411854796630534</v>
+        <v>0.7410906721057894</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>4738</v>
@@ -5101,19 +5101,19 @@
         <v>5080780</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>4999313</v>
+        <v>4998770</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>5156187</v>
+        <v>5156122</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.7305860408514431</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.7188717059625563</v>
+        <v>0.7187936147629771</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.7414291825817864</v>
+        <v>0.7414198964156122</v>
       </c>
     </row>
     <row r="32">
@@ -5130,19 +5130,19 @@
         <v>382728</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>346371</v>
+        <v>348143</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>423597</v>
+        <v>420742</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1121447974396677</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1014917855566443</v>
+        <v>0.1020110413523594</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1241199624704288</v>
+        <v>0.1232835396191711</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>338</v>
@@ -5151,19 +5151,19 @@
         <v>365726</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>330252</v>
+        <v>332447</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>406708</v>
+        <v>404222</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1032661674146528</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.09324970154035282</v>
+        <v>0.09386956044108437</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1148376626942369</v>
+        <v>0.1141357062440404</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>701</v>
@@ -5172,19 +5172,19 @@
         <v>748454</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>697808</v>
+        <v>701346</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>803970</v>
+        <v>804563</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1076232725455502</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1003406188474212</v>
+        <v>0.1008494037136967</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1156060984707652</v>
+        <v>0.1156913641949675</v>
       </c>
     </row>
     <row r="33">
@@ -5516,19 +5516,19 @@
         <v>3194</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9703</v>
+        <v>8684</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.004743370892971255</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.001398277158409287</v>
+        <v>0.001401154763636727</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01441036212202358</v>
+        <v>0.01289780769437799</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -5550,19 +5550,19 @@
         <v>3194</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>9060</v>
+        <v>9461</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.002375841383668533</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.000700153080544907</v>
+        <v>0.0006986922632522483</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.006739682144583151</v>
+        <v>0.007037978958061185</v>
       </c>
     </row>
     <row r="5">
@@ -5579,19 +5579,19 @@
         <v>5697</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1906</v>
+        <v>1902</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>13389</v>
+        <v>13531</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.008461527279820408</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.002831470268377262</v>
+        <v>0.002825317173131647</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0198856020078249</v>
+        <v>0.02009608503006599</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -5600,19 +5600,19 @@
         <v>3168</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8633</v>
+        <v>8504</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.004721349585868937</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.001355365131445557</v>
+        <v>0.001343359135262711</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01286699441515161</v>
+        <v>0.01267474325009446</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>8</v>
@@ -5621,19 +5621,19 @@
         <v>8865</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>4015</v>
+        <v>4106</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>18404</v>
+        <v>18855</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.006594715415374544</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.002986632594599181</v>
+        <v>0.00305453931206349</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01369078607561132</v>
+        <v>0.01402615573181565</v>
       </c>
     </row>
     <row r="6">
@@ -5650,19 +5650,19 @@
         <v>32306</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>21937</v>
+        <v>22335</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>46821</v>
+        <v>45896</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.04797953584412818</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03258030150645844</v>
+        <v>0.03317193094670553</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.06953814575420555</v>
+        <v>0.06816329797733602</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>39</v>
@@ -5671,19 +5671,19 @@
         <v>39698</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>29138</v>
+        <v>29335</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>53462</v>
+        <v>52807</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.05916579941612555</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.04342719548184697</v>
+        <v>0.04372013900797761</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.07967986342623795</v>
+        <v>0.07870290786969246</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>69</v>
@@ -5692,19 +5692,19 @@
         <v>72004</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>57292</v>
+        <v>58096</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>92226</v>
+        <v>91584</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.05356286670800511</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.04261869369943825</v>
+        <v>0.04321686192730897</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.0686064020036735</v>
+        <v>0.06812832319026768</v>
       </c>
     </row>
     <row r="7">
@@ -5721,19 +5721,19 @@
         <v>390060</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>363065</v>
+        <v>362948</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>416119</v>
+        <v>417104</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5793086509365348</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5392157838291068</v>
+        <v>0.5390420786168242</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6180113974854708</v>
+        <v>0.619473984774495</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>392</v>
@@ -5742,19 +5742,19 @@
         <v>399024</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>372350</v>
+        <v>374997</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>422739</v>
+        <v>421111</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5947018667175071</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.554947966371888</v>
+        <v>0.5588926670204957</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6300474914568511</v>
+        <v>0.6276212089253823</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>770</v>
@@ -5763,19 +5763,19 @@
         <v>789084</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>752641</v>
+        <v>750852</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>826467</v>
+        <v>823343</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5869917719546528</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5598823812444753</v>
+        <v>0.5585513892968548</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6148009338353104</v>
+        <v>0.6124768657962167</v>
       </c>
     </row>
     <row r="8">
@@ -5792,19 +5792,19 @@
         <v>242063</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>214960</v>
+        <v>216933</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>266320</v>
+        <v>266593</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3595069150465453</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3192543355745942</v>
+        <v>0.322183469150198</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3955322408916638</v>
+        <v>0.3959387631259026</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>230</v>
@@ -5813,19 +5813,19 @@
         <v>229074</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>206488</v>
+        <v>206468</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>254929</v>
+        <v>254322</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3414109842804984</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3077487686124153</v>
+        <v>0.3077191493568551</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3799443740734513</v>
+        <v>0.3790393484598894</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>465</v>
@@ -5834,19 +5834,19 @@
         <v>471138</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>432654</v>
+        <v>435551</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>508731</v>
+        <v>506943</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.350474804538299</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3218473786463882</v>
+        <v>0.3240023999580298</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3784399434888273</v>
+        <v>0.3771097064114535</v>
       </c>
     </row>
     <row r="9">
@@ -5941,7 +5941,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7289</v>
+        <v>8478</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.002286824094307324</v>
@@ -5950,7 +5950,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.007136391969901136</v>
+        <v>0.008301231541066515</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -5962,7 +5962,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4857</v>
+        <v>6016</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0009359454959065737</v>
@@ -5971,7 +5971,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.004670582069946552</v>
+        <v>0.00578482196327129</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3</v>
@@ -5980,19 +5980,19 @@
         <v>3309</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>9694</v>
+        <v>9600</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.001605294082716615</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0004714951503345719</v>
+        <v>0.0004721327572266461</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.004702854963572017</v>
+        <v>0.004657186397014165</v>
       </c>
     </row>
     <row r="11">
@@ -6009,19 +6009,19 @@
         <v>9760</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4848</v>
+        <v>4871</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>17868</v>
+        <v>19131</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.009556360145362795</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.004747140339678262</v>
+        <v>0.004768980163212316</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01749466496113758</v>
+        <v>0.01873085293822234</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>15</v>
@@ -6030,19 +6030,19 @@
         <v>16746</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>10129</v>
+        <v>10027</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>27403</v>
+        <v>27715</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01610258893624913</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.009740205974548456</v>
+        <v>0.009642115605508001</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0263504536313399</v>
+        <v>0.02665054362317061</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>24</v>
@@ -6051,19 +6051,19 @@
         <v>26506</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>16871</v>
+        <v>17397</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>40379</v>
+        <v>38939</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01285898955189121</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.008184677139940026</v>
+        <v>0.008439716797266945</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01958924274834509</v>
+        <v>0.01889081538536036</v>
       </c>
     </row>
     <row r="12">
@@ -6080,19 +6080,19 @@
         <v>87108</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>68916</v>
+        <v>68859</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>108823</v>
+        <v>106143</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.08528706103435869</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.0674754381664899</v>
+        <v>0.06741976412917193</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1065488200501778</v>
+        <v>0.1039247975664886</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>89</v>
@@ -6101,19 +6101,19 @@
         <v>92563</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>74358</v>
+        <v>75783</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>113592</v>
+        <v>110462</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.08900806816930638</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.07150249379402823</v>
+        <v>0.07287321115112667</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1092299354171706</v>
+        <v>0.1062204512977873</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>168</v>
@@ -6122,19 +6122,19 @@
         <v>179670</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>156398</v>
+        <v>153584</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>208365</v>
+        <v>207807</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.08716434152337692</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.07587395025673863</v>
+        <v>0.07450907908710654</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1010852898402426</v>
+        <v>0.1008144762587052</v>
       </c>
     </row>
     <row r="13">
@@ -6151,19 +6151,19 @@
         <v>677582</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>644849</v>
+        <v>646042</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>706032</v>
+        <v>709551</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6634191943291093</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6313701162672706</v>
+        <v>0.6325380986854546</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6912742019773889</v>
+        <v>0.6947205844002966</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>629</v>
@@ -6172,19 +6172,19 @@
         <v>671673</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>639674</v>
+        <v>641507</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>704222</v>
+        <v>701326</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6458796317627817</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6151096972730062</v>
+        <v>0.6168719673385258</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6771790703803616</v>
+        <v>0.6743943277616147</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1257</v>
@@ -6193,19 +6193,19 @@
         <v>1349255</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1305698</v>
+        <v>1302948</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1394928</v>
+        <v>1393189</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6545703323416022</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.633439522844765</v>
+        <v>0.6321055315345342</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6767280555999188</v>
+        <v>0.6758845688029137</v>
       </c>
     </row>
     <row r="14">
@@ -6222,19 +6222,19 @@
         <v>244562</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>218370</v>
+        <v>217090</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>274749</v>
+        <v>272764</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2394505603968619</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2138056184833224</v>
+        <v>0.2125523607042085</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2690058385692109</v>
+        <v>0.2670629591751086</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>240</v>
@@ -6243,19 +6243,19 @@
         <v>257981</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>232596</v>
+        <v>231112</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>287717</v>
+        <v>290386</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2480737656357562</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2236638110889065</v>
+        <v>0.2222372409500424</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2766678234542524</v>
+        <v>0.279234548857484</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>472</v>
@@ -6264,19 +6264,19 @@
         <v>502543</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>464535</v>
+        <v>467258</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>542408</v>
+        <v>548787</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.243801042500413</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2253622681976184</v>
+        <v>0.2266832373394294</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.263141203299752</v>
+        <v>0.2662356937626148</v>
       </c>
     </row>
     <row r="15">
@@ -6368,19 +6368,19 @@
         <v>3098</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8313</v>
+        <v>8373</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.004083835645464756</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001341046714397103</v>
+        <v>0.001337486883342232</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01095910778889682</v>
+        <v>0.01103941973939747</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -6392,7 +6392,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6629</v>
+        <v>7377</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.002692239459946059</v>
@@ -6401,7 +6401,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.008468137488134809</v>
+        <v>0.00942451722705524</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -6410,19 +6410,19 @@
         <v>5205</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2068</v>
+        <v>2058</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>11538</v>
+        <v>11461</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.00337707111866881</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.001341854099966733</v>
+        <v>0.00133519837183104</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.007485986501331011</v>
+        <v>0.007435696538456898</v>
       </c>
     </row>
     <row r="17">
@@ -6439,19 +6439,19 @@
         <v>9130</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4065</v>
+        <v>3997</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>17968</v>
+        <v>17264</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01203701446198279</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.005359367935112587</v>
+        <v>0.005269305743265904</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02368859033022308</v>
+        <v>0.02276000423087126</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>22</v>
@@ -6460,19 +6460,19 @@
         <v>24098</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>15199</v>
+        <v>15992</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>35818</v>
+        <v>36164</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03078469495188955</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01941603813051365</v>
+        <v>0.02042916375951408</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04575675019710304</v>
+        <v>0.0461980658259776</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>30</v>
@@ -6481,19 +6481,19 @@
         <v>33228</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>22669</v>
+        <v>22362</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>46183</v>
+        <v>46089</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02155859526815015</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01470751819618422</v>
+        <v>0.01450856603249256</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0299633914688625</v>
+        <v>0.02990228318828502</v>
       </c>
     </row>
     <row r="18">
@@ -6510,19 +6510,19 @@
         <v>115761</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>97219</v>
+        <v>97341</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>136218</v>
+        <v>135898</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1526175859156828</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1281717800620684</v>
+        <v>0.1283326271641912</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1795870408804133</v>
+        <v>0.1791653669625194</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>108</v>
@@ -6531,19 +6531,19 @@
         <v>116471</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>95302</v>
+        <v>97566</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>137916</v>
+        <v>138881</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1487883774197889</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1217453438801257</v>
+        <v>0.1246369477314693</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1761831033824921</v>
+        <v>0.1774160126688867</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>216</v>
@@ -6552,19 +6552,19 @@
         <v>232233</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>205146</v>
+        <v>203941</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>262662</v>
+        <v>261850</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1506728056994344</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1330988047872742</v>
+        <v>0.1323169229562572</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1704154256052118</v>
+        <v>0.1698888192549625</v>
       </c>
     </row>
     <row r="19">
@@ -6581,19 +6581,19 @@
         <v>464028</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>437549</v>
+        <v>435767</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>492438</v>
+        <v>489453</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.611765352279989</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5768569067451177</v>
+        <v>0.5745075039978389</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6492207120750083</v>
+        <v>0.6452851104153617</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>439</v>
@@ -6602,19 +6602,19 @@
         <v>464891</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>434974</v>
+        <v>434436</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>490379</v>
+        <v>490115</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5938837025481594</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5556658684752049</v>
+        <v>0.5549784032879346</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.626444255716033</v>
+        <v>0.6261068578925573</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>861</v>
@@ -6623,19 +6623,19 @@
         <v>928919</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>890671</v>
+        <v>891397</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>964866</v>
+        <v>972367</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.6026836115835407</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5778682904166306</v>
+        <v>0.5783392244276934</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6260064006761599</v>
+        <v>0.6308727532968045</v>
       </c>
     </row>
     <row r="20">
@@ -6652,19 +6652,19 @@
         <v>166489</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>144250</v>
+        <v>144241</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>188375</v>
+        <v>191450</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2194962116968807</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1901763936070292</v>
+        <v>0.1901652388652912</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2483500714068031</v>
+        <v>0.2524042238501568</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>163</v>
@@ -6673,19 +6673,19 @@
         <v>175230</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>153399</v>
+        <v>151537</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>200768</v>
+        <v>203287</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2238509856202161</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1959629554385638</v>
+        <v>0.193584113132606</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2564749472235829</v>
+        <v>0.2596932682286932</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>317</v>
@@ -6694,19 +6694,19 @@
         <v>341719</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>309643</v>
+        <v>308344</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>373824</v>
+        <v>375775</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.221707916330206</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2008970025784791</v>
+        <v>0.2000542012595529</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2425373891956496</v>
+        <v>0.2438029747288158</v>
       </c>
     </row>
     <row r="21">
@@ -6801,7 +6801,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>9457</v>
+        <v>9916</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.002776399219445645</v>
@@ -6810,7 +6810,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01014213995300508</v>
+        <v>0.01063372068105127</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4</v>
@@ -6819,19 +6819,19 @@
         <v>4021</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>939</v>
+        <v>1254</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>9323</v>
+        <v>10243</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.00387796514824702</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0009058946369924274</v>
+        <v>0.001209737441265736</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.008991967022669948</v>
+        <v>0.00987905774367919</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>6</v>
@@ -6840,19 +6840,19 @@
         <v>6610</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2517</v>
+        <v>2817</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>14621</v>
+        <v>15079</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.003356368826468054</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.001278352308954235</v>
+        <v>0.001430630806884106</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.007424571925533292</v>
+        <v>0.007657298612243438</v>
       </c>
     </row>
     <row r="23">
@@ -6869,19 +6869,19 @@
         <v>10220</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>5191</v>
+        <v>4841</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>19125</v>
+        <v>18382</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01096047487014767</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.005567358719798184</v>
+        <v>0.005191132246847466</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02050998378599467</v>
+        <v>0.01971331528509493</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>22</v>
@@ -6890,19 +6890,19 @@
         <v>24333</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>15466</v>
+        <v>15694</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>37068</v>
+        <v>35348</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.02346873127711675</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01491659025326996</v>
+        <v>0.01513677682041159</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.03575216480110695</v>
+        <v>0.03409303176714825</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>32</v>
@@ -6911,19 +6911,19 @@
         <v>34553</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>23776</v>
+        <v>23918</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>48806</v>
+        <v>47862</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01754601674577466</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01207339087591375</v>
+        <v>0.01214560531807534</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.02478356213794174</v>
+        <v>0.02430458028446044</v>
       </c>
     </row>
     <row r="24">
@@ -6940,19 +6940,19 @@
         <v>179448</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>159099</v>
+        <v>155593</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>204618</v>
+        <v>203664</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1924453030395687</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1706226453625984</v>
+        <v>0.1668629686280247</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2194391671035899</v>
+        <v>0.2184159661773579</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>174</v>
@@ -6961,19 +6961,19 @@
         <v>196766</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>171792</v>
+        <v>172394</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>226883</v>
+        <v>223484</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1897794712778346</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1656918667485835</v>
+        <v>0.1662722147139008</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.218827285129033</v>
+        <v>0.2155486084384918</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>353</v>
@@ -6982,19 +6982,19 @@
         <v>376214</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>342979</v>
+        <v>340049</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>414814</v>
+        <v>412109</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1910417543650712</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1741649757682889</v>
+        <v>0.172677418532113</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2106427856945741</v>
+        <v>0.2092692100640386</v>
       </c>
     </row>
     <row r="25">
@@ -7011,19 +7011,19 @@
         <v>640853</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>614012</v>
+        <v>612820</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>667828</v>
+        <v>667839</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.6872700717445727</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.6584853950172617</v>
+        <v>0.6572068002703113</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.7161993099155848</v>
+        <v>0.7162116634727391</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>644</v>
@@ -7032,19 +7032,19 @@
         <v>693922</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>658308</v>
+        <v>663545</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>723801</v>
+        <v>725358</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.6692819079408857</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.6349328927694413</v>
+        <v>0.6399841590207508</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.6980999872865433</v>
+        <v>0.6996025613137522</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1279</v>
@@ -7053,19 +7053,19 @@
         <v>1334774</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1289928</v>
+        <v>1291557</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1374584</v>
+        <v>1377007</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.6777993827739807</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.6550263162526707</v>
+        <v>0.6558537558137032</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.6980148165083128</v>
+        <v>0.6992453008207253</v>
       </c>
     </row>
     <row r="26">
@@ -7082,19 +7082,19 @@
         <v>99352</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>81720</v>
+        <v>81388</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>118745</v>
+        <v>119944</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1065477511262654</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.08763900690583418</v>
+        <v>0.08728253945093724</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1273455793672449</v>
+        <v>0.1286318416593061</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>109</v>
@@ -7103,19 +7103,19 @@
         <v>117774</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>96955</v>
+        <v>95086</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>139993</v>
+        <v>136470</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1135919243559159</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.09351275812373804</v>
+        <v>0.09170948941482661</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1350221168148631</v>
+        <v>0.1316245774434539</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>210</v>
@@ -7124,19 +7124,19 @@
         <v>217125</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>191145</v>
+        <v>190562</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>248609</v>
+        <v>246817</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1102564772887054</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.09706381287948132</v>
+        <v>0.09676749437010203</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1262438397934428</v>
+        <v>0.1253341078114845</v>
       </c>
     </row>
     <row r="27">
@@ -7228,19 +7228,19 @@
         <v>11216</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>5247</v>
+        <v>5291</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>20341</v>
+        <v>20322</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.003312804746224013</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.001549787365495254</v>
+        <v>0.001562760442690575</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.006008129592194594</v>
+        <v>0.006002306114276232</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>7</v>
@@ -7249,19 +7249,19 @@
         <v>7102</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2917</v>
+        <v>3143</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>14426</v>
+        <v>15101</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.002011474384297371</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.0008261621517342741</v>
+        <v>0.0008901418019911599</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.004086003390552494</v>
+        <v>0.0042772169286798</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>17</v>
@@ -7270,19 +7270,19 @@
         <v>18317</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>11134</v>
+        <v>10519</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>29049</v>
+        <v>28464</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.00264850951963476</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.001609830442665144</v>
+        <v>0.001520889541570211</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.004200235131459813</v>
+        <v>0.004115588466166436</v>
       </c>
     </row>
     <row r="29">
@@ -7299,19 +7299,19 @@
         <v>34808</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>23777</v>
+        <v>24980</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>46998</v>
+        <v>49245</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01028109877517312</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.007022767720772462</v>
+        <v>0.007378264943103865</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.013881599994686</v>
+        <v>0.01454515872065451</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>62</v>
@@ -7320,19 +7320,19 @@
         <v>68344</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>50939</v>
+        <v>52513</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>86604</v>
+        <v>86719</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01935822040885968</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01442835219995878</v>
+        <v>0.01487398833015334</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.02453012538926876</v>
+        <v>0.02456278703906021</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>94</v>
@@ -7341,19 +7341,19 @@
         <v>103152</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>84215</v>
+        <v>83540</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>127438</v>
+        <v>125387</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01491473274610474</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01217652740383623</v>
+        <v>0.01207897447930751</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.0184261221209896</v>
+        <v>0.01812957075126321</v>
       </c>
     </row>
     <row r="30">
@@ -7370,19 +7370,19 @@
         <v>414622</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>379038</v>
+        <v>379917</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>456512</v>
+        <v>456184</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1224651960729438</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1119546554369193</v>
+        <v>0.1122144158411741</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1348379346455532</v>
+        <v>0.1347409520519071</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>410</v>
@@ -7391,19 +7391,19 @@
         <v>445498</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>406393</v>
+        <v>407638</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>493043</v>
+        <v>486656</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1261851452838141</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1151087744201383</v>
+        <v>0.1154612855500448</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1396518042995701</v>
+        <v>0.1378428380113564</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>806</v>
@@ -7412,19 +7412,19 @@
         <v>860121</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>804356</v>
+        <v>800457</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>921128</v>
+        <v>917224</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1243641331731872</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1163011356671888</v>
+        <v>0.1157373782277527</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1331851633308459</v>
+        <v>0.1326206462910134</v>
       </c>
     </row>
     <row r="31">
@@ -7441,19 +7441,19 @@
         <v>2172522</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>2117667</v>
+        <v>2110420</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>2234631</v>
+        <v>2227248</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.641688249786683</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.6254858112939009</v>
+        <v>0.6233454245247925</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.6600331216961494</v>
+        <v>0.6578524011942808</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>2104</v>
@@ -7462,19 +7462,19 @@
         <v>2229509</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>2174883</v>
+        <v>2171780</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>2288907</v>
+        <v>2292672</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.6314973199068314</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.616024728681126</v>
+        <v>0.6151458295759492</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.6483214924450065</v>
+        <v>0.6493877301387748</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>4167</v>
@@ -7483,19 +7483,19 @@
         <v>4402032</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>4310386</v>
+        <v>4321735</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>4480227</v>
+        <v>4488329</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.6364860457409184</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.6232350159857314</v>
+        <v>0.6248760481948696</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.6477922340907907</v>
+        <v>0.6489636493185028</v>
       </c>
     </row>
     <row r="32">
@@ -7512,19 +7512,19 @@
         <v>752466</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>699360</v>
+        <v>705823</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>802711</v>
+        <v>801346</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.222252650618976</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2065668484268989</v>
+        <v>0.2084757639112778</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2370932491765034</v>
+        <v>0.2366900589897455</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>742</v>
@@ -7533,19 +7533,19 @@
         <v>780059</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>730665</v>
+        <v>734238</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>828551</v>
+        <v>833699</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2209478400161973</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2069572058152987</v>
+        <v>0.2079691159590299</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2346828025450131</v>
+        <v>0.2361409252708055</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1464</v>
@@ -7554,19 +7554,19 @@
         <v>1532526</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1465754</v>
+        <v>1465062</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1600990</v>
+        <v>1605002</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.221586578820155</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2119321101184273</v>
+        <v>0.2118320349692186</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2314858547122134</v>
+        <v>0.232065875377156</v>
       </c>
     </row>
     <row r="33">
@@ -7914,16 +7914,16 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>1402</v>
+        <v>1494</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.0003792375728827543</v>
+        <v>0.0003792375728827542</v>
       </c>
       <c r="O4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.001910185569680122</v>
+        <v>0.002036100560959895</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -7935,7 +7935,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1411</v>
+        <v>1146</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0001955012534099049</v>
@@ -7944,7 +7944,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0009916125858890226</v>
+        <v>0.0008048496193991169</v>
       </c>
     </row>
     <row r="5">
@@ -7964,7 +7964,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4577</v>
+        <v>5283</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.002113271558488722</v>
@@ -7973,7 +7973,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.006637154410273932</v>
+        <v>0.007660160233422546</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>4</v>
@@ -7982,19 +7982,19 @@
         <v>1764</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>429</v>
+        <v>379</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>4939</v>
+        <v>4576</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.002403757388291735</v>
+        <v>0.002403757388291734</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0005851843160861498</v>
+        <v>0.000516754318028228</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.006730218919402542</v>
+        <v>0.00623606360678376</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>6</v>
@@ -8003,19 +8003,19 @@
         <v>3221</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1356</v>
+        <v>1180</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>6756</v>
+        <v>6810</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.002263020285632545</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0009529859245034128</v>
+        <v>0.0008288319433041457</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.004746320791068946</v>
+        <v>0.004783955904057637</v>
       </c>
     </row>
     <row r="6">
@@ -8032,19 +8032,19 @@
         <v>22519</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14462</v>
+        <v>15290</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>33369</v>
+        <v>36214</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03265438995268284</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02097031039270424</v>
+        <v>0.02217183603631512</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04838735050718583</v>
+        <v>0.05251305768084751</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>48</v>
@@ -8053,19 +8053,19 @@
         <v>27344</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>20183</v>
+        <v>19557</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>40408</v>
+        <v>38944</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03726380227870544</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02750535223646891</v>
+        <v>0.02665233010578881</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05506818513511334</v>
+        <v>0.05307352533892463</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>74</v>
@@ -8074,19 +8074,19 @@
         <v>49863</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>37653</v>
+        <v>37950</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>63495</v>
+        <v>66261</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.03503059408343516</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0264526082747614</v>
+        <v>0.0266617617931089</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.0446077012347476</v>
+        <v>0.04655121047007616</v>
       </c>
     </row>
     <row r="7">
@@ -8103,19 +8103,19 @@
         <v>388614</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>357795</v>
+        <v>358722</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>413425</v>
+        <v>415856</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5635156431691889</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5188260910788718</v>
+        <v>0.5201699845132177</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.599493262127633</v>
+        <v>0.6030191330266409</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>709</v>
@@ -8124,19 +8124,19 @@
         <v>409530</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>384942</v>
+        <v>387242</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>431168</v>
+        <v>431499</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.5581082219148218</v>
+        <v>0.5581082219148217</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5246004466832314</v>
+        <v>0.5277343897531657</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.587596429286578</v>
+        <v>0.588048159581274</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1138</v>
@@ -8145,19 +8145,19 @@
         <v>798143</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>761187</v>
+        <v>763685</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>833208</v>
+        <v>834574</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5607280564200485</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5347648629800017</v>
+        <v>0.5365196033698415</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5853626694632424</v>
+        <v>0.58632246098841</v>
       </c>
     </row>
     <row r="8">
@@ -8174,19 +8174,19 @@
         <v>277033</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>250573</v>
+        <v>250315</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>308063</v>
+        <v>305603</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4017166953196395</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3633479004727931</v>
+        <v>0.3629724910738691</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4467121345101126</v>
+        <v>0.443144666259955</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>478</v>
@@ -8195,19 +8195,19 @@
         <v>294867</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>274718</v>
+        <v>275121</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>318459</v>
+        <v>317440</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.4018449808452984</v>
+        <v>0.4018449808452983</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3743862760429571</v>
+        <v>0.3749359549214064</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.433996737628178</v>
+        <v>0.4326085058589176</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>750</v>
@@ -8216,19 +8216,19 @@
         <v>571900</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>538314</v>
+        <v>534901</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>610499</v>
+        <v>608188</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4017828279574739</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3781874989847226</v>
+        <v>0.3757897948446732</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4289005910934167</v>
+        <v>0.4272767922105336</v>
       </c>
     </row>
     <row r="9">
@@ -8323,7 +8323,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6326</v>
+        <v>7916</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.001234048268591772</v>
@@ -8332,7 +8332,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.006046927315840374</v>
+        <v>0.007566872177083048</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -8344,7 +8344,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4801</v>
+        <v>3794</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.001073894036050563</v>
@@ -8353,7 +8353,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.004486120991654549</v>
+        <v>0.003545368657730669</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3</v>
@@ -8362,19 +8362,19 @@
         <v>2440</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>8106</v>
+        <v>8101</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.001153062818450922</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0002170503906348668</v>
+        <v>0.000218213511578531</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.003830612433877407</v>
+        <v>0.00382811688188144</v>
       </c>
     </row>
     <row r="11">
@@ -8391,19 +8391,19 @@
         <v>3275</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>8104</v>
+        <v>9159</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.003131014420934163</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0006945036916769399</v>
+        <v>0.0006992821467459155</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.007746699394097252</v>
+        <v>0.008755158907945183</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>7</v>
@@ -8412,19 +8412,19 @@
         <v>5574</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2224</v>
+        <v>2156</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>11012</v>
+        <v>11288</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.005208444695626998</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.002078385197282847</v>
+        <v>0.002014993785147154</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01029025373997442</v>
+        <v>0.01054866146469666</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>11</v>
@@ -8433,19 +8433,19 @@
         <v>8849</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>4485</v>
+        <v>4610</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>16284</v>
+        <v>15994</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.004181511952361802</v>
+        <v>0.004181511952361801</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.002119319464098159</v>
+        <v>0.00217824247782432</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.007694817653067803</v>
+        <v>0.007557993159510549</v>
       </c>
     </row>
     <row r="12">
@@ -8462,19 +8462,19 @@
         <v>39162</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>27284</v>
+        <v>26753</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>54327</v>
+        <v>53095</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03743687295672694</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02608214582949599</v>
+        <v>0.02557394864526471</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05193286504979271</v>
+        <v>0.05075563862812992</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>75</v>
@@ -8483,19 +8483,19 @@
         <v>53242</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>41520</v>
+        <v>42294</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>66447</v>
+        <v>66902</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04975426836003602</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03880029427708639</v>
+        <v>0.03952328966593476</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06209433005486212</v>
+        <v>0.06251928607490229</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>113</v>
@@ -8504,19 +8504,19 @@
         <v>92404</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>75179</v>
+        <v>76080</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>112522</v>
+        <v>113121</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.04366543023849059</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03552573751978175</v>
+        <v>0.0359513410054844</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.05317176680771666</v>
+        <v>0.0534549706405324</v>
       </c>
     </row>
     <row r="13">
@@ -8533,19 +8533,19 @@
         <v>749802</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>715523</v>
+        <v>716356</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>782646</v>
+        <v>781628</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.7167631519439975</v>
+        <v>0.7167631519439974</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6839950053646118</v>
+        <v>0.6847907825220699</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7481606661940184</v>
+        <v>0.7471869536394381</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1121</v>
@@ -8554,19 +8554,19 @@
         <v>781211</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>752957</v>
+        <v>753054</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>806834</v>
+        <v>807203</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7300366157514742</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7036333398155132</v>
+        <v>0.7037247986513937</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7539818542739394</v>
+        <v>0.7543258716157423</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1831</v>
@@ -8575,19 +8575,19 @@
         <v>1531012</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1490611</v>
+        <v>1479349</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1573579</v>
+        <v>1572769</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.723475165884061</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7043838179556705</v>
+        <v>0.6990617877973243</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7435898195460905</v>
+        <v>0.7432069167757704</v>
       </c>
     </row>
     <row r="14">
@@ -8604,19 +8604,19 @@
         <v>252564</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>222696</v>
+        <v>221379</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>287703</v>
+        <v>285128</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2414349124097495</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2128830192474611</v>
+        <v>0.2116244526960849</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2750258339882999</v>
+        <v>0.2725647450614496</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>310</v>
@@ -8625,19 +8625,19 @@
         <v>228923</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>204370</v>
+        <v>203303</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>255940</v>
+        <v>253214</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2139267771568122</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1909827384372576</v>
+        <v>0.1899855301352511</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2391746287985111</v>
+        <v>0.2366272094955635</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>519</v>
@@ -8646,19 +8646,19 @@
         <v>481486</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>441508</v>
+        <v>443505</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>521267</v>
+        <v>527530</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2275248291066356</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2086334783655759</v>
+        <v>0.2095767993150131</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2463230453116889</v>
+        <v>0.2492824884190652</v>
       </c>
     </row>
     <row r="15">
@@ -8753,7 +8753,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5206</v>
+        <v>5810</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.001300434505355182</v>
@@ -8762,7 +8762,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.006498361476217809</v>
+        <v>0.007251139951651366</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -8774,7 +8774,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>3587</v>
+        <v>3389</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0008209259968153373</v>
@@ -8783,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.004415673020931961</v>
+        <v>0.004172333823458356</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2</v>
@@ -8795,7 +8795,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5940</v>
+        <v>6225</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.001059037055780151</v>
@@ -8804,7 +8804,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.003681269018013464</v>
+        <v>0.003858004469049405</v>
       </c>
     </row>
     <row r="17">
@@ -8821,19 +8821,19 @@
         <v>3792</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>867</v>
+        <v>887</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>10627</v>
+        <v>9915</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.004733210246458567</v>
+        <v>0.004733210246458566</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.001082624545073635</v>
+        <v>0.001107465710221058</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01326323377545807</v>
+        <v>0.01237498577804491</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4</v>
@@ -8842,19 +8842,19 @@
         <v>2763</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>712</v>
+        <v>730</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>6465</v>
+        <v>6830</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.003401927960868689</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0008762928971441153</v>
+        <v>0.0008984120781394572</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.007958771421347271</v>
+        <v>0.008408309446180423</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7</v>
@@ -8863,19 +8863,19 @@
         <v>6555</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2751</v>
+        <v>2902</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>14358</v>
+        <v>14122</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.004063007022360591</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.001704788184539324</v>
+        <v>0.001798359166352293</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.008898853794849667</v>
+        <v>0.008752548003853462</v>
       </c>
     </row>
     <row r="18">
@@ -8892,19 +8892,19 @@
         <v>72486</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>54822</v>
+        <v>55943</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>94902</v>
+        <v>95982</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.09047170746355382</v>
+        <v>0.0904717074635538</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.06842435227588482</v>
+        <v>0.06982352800342545</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1184497707901807</v>
+        <v>0.1197981343155381</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>100</v>
@@ -8913,19 +8913,19 @@
         <v>85014</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>68635</v>
+        <v>70027</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>105073</v>
+        <v>103930</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.1046641935235631</v>
+        <v>0.1046641935235632</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.08449918734186211</v>
+        <v>0.08621270967224982</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1293583809468362</v>
+        <v>0.1279519368809877</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>158</v>
@@ -8934,19 +8934,19 @@
         <v>157500</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>133732</v>
+        <v>132725</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>187861</v>
+        <v>182052</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.09761658576497971</v>
+        <v>0.09761658576497972</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.08288498110605995</v>
+        <v>0.08226097005202838</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1164338352070485</v>
+        <v>0.1128333948181653</v>
       </c>
     </row>
     <row r="19">
@@ -8963,19 +8963,19 @@
         <v>615003</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>583782</v>
+        <v>586178</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>642269</v>
+        <v>642443</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.7676008819612258</v>
+        <v>0.7676008819612257</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.7286339130746267</v>
+        <v>0.7316237237856743</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.8016330954666077</v>
+        <v>0.8018494903834222</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>816</v>
@@ -8984,19 +8984,19 @@
         <v>626043</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>601292</v>
+        <v>600388</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>646952</v>
+        <v>648884</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.7707434035457167</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.7402713120162466</v>
+        <v>0.7391578355209145</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7964852196783808</v>
+        <v>0.7988637189278641</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1339</v>
@@ -9005,19 +9005,19 @@
         <v>1241045</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1203868</v>
+        <v>1200339</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1277061</v>
+        <v>1276940</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.769182911648333</v>
+        <v>0.7691829116483331</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.7461409099745542</v>
+        <v>0.7439537444978642</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7915053099821712</v>
+        <v>0.7914303169750642</v>
       </c>
     </row>
     <row r="20">
@@ -9034,19 +9034,19 @@
         <v>108878</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>87131</v>
+        <v>88231</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>134567</v>
+        <v>135218</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1358937658234067</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1087500205903545</v>
+        <v>0.1101230905395283</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1679564930009181</v>
+        <v>0.1687693948778427</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>126</v>
@@ -9055,19 +9055,19 @@
         <v>97771</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>82179</v>
+        <v>81435</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>117521</v>
+        <v>117305</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1203695489730362</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1011728959504867</v>
+        <v>0.1002576923981049</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1446844672602699</v>
+        <v>0.1444183575779251</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>215</v>
@@ -9076,19 +9076,19 @@
         <v>206649</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>177286</v>
+        <v>177417</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>235826</v>
+        <v>238958</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1280784585085465</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.109879304696164</v>
+        <v>0.1099603664073434</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1461617213963453</v>
+        <v>0.1481030751536957</v>
       </c>
     </row>
     <row r="21">
@@ -9180,19 +9180,19 @@
         <v>6990</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2999</v>
+        <v>2879</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>14348</v>
+        <v>14815</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.007076364812363682</v>
+        <v>0.007076364812363683</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.003035650475588014</v>
+        <v>0.002914815553066921</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01452565858810597</v>
+        <v>0.01499841449158079</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>12</v>
@@ -9201,19 +9201,19 @@
         <v>8798</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>4545</v>
+        <v>4857</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>15454</v>
+        <v>16108</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.007915170477734166</v>
+        <v>0.007915170477734164</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.004088789291627571</v>
+        <v>0.004369384895758318</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01390246634839663</v>
+        <v>0.01449109325211712</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>19</v>
@@ -9222,19 +9222,19 @@
         <v>15788</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>9443</v>
+        <v>9830</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>24718</v>
+        <v>25281</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.007520493547157931</v>
+        <v>0.007520493547157932</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.004497982591957384</v>
+        <v>0.004682562142273709</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01177424636541439</v>
+        <v>0.01204227739035936</v>
       </c>
     </row>
     <row r="23">
@@ -9251,19 +9251,19 @@
         <v>20021</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>11800</v>
+        <v>12671</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>31523</v>
+        <v>32317</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02026780045236485</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01194528163618385</v>
+        <v>0.01282770069411265</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.03191228285727361</v>
+        <v>0.03271588130321999</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>37</v>
@@ -9272,19 +9272,19 @@
         <v>26611</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>18100</v>
+        <v>19069</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>35959</v>
+        <v>37905</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.02394042974458214</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01628351144342461</v>
+        <v>0.01715515631328573</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.03234960806595208</v>
+        <v>0.03410017814735433</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>57</v>
@@ -9293,19 +9293,19 @@
         <v>46632</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>35270</v>
+        <v>35219</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>62476</v>
+        <v>61105</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.02221237506393514</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.0168005263521045</v>
+        <v>0.01677610437984891</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.0297593820062324</v>
+        <v>0.02910645548656675</v>
       </c>
     </row>
     <row r="24">
@@ -9322,19 +9322,19 @@
         <v>134035</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>111151</v>
+        <v>111272</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>162110</v>
+        <v>158092</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.135690945997598</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1125234538178256</v>
+        <v>0.1126467782374988</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1641118428692118</v>
+        <v>0.1600445984391856</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>227</v>
@@ -9343,19 +9343,19 @@
         <v>165099</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>145304</v>
+        <v>142501</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>188844</v>
+        <v>187957</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1485284970468226</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1307199958184061</v>
+        <v>0.1281979917379935</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1698894534625855</v>
+        <v>0.169092147731645</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>357</v>
@@ -9364,19 +9364,19 @@
         <v>299135</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>271923</v>
+        <v>270273</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>333330</v>
+        <v>332565</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.142488140557354</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1295259852597742</v>
+        <v>0.1287401392959226</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1587762382792354</v>
+        <v>0.1584121198404321</v>
       </c>
     </row>
     <row r="25">
@@ -9393,19 +9393,19 @@
         <v>733717</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>702704</v>
+        <v>700697</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>767253</v>
+        <v>763005</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.7427794663633341</v>
+        <v>0.7427794663633343</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.711383539059613</v>
+        <v>0.7093513968285461</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.7767293852591858</v>
+        <v>0.7724289187925599</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1177</v>
@@ -9414,19 +9414,19 @@
         <v>839202</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>813460</v>
+        <v>812698</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>863891</v>
+        <v>863877</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.7549720567418832</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.7318141379423962</v>
+        <v>0.7311279087385221</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.7771830080292037</v>
+        <v>0.7771708070461596</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1947</v>
@@ -9435,19 +9435,19 @@
         <v>1572920</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1533363</v>
+        <v>1529233</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1611578</v>
+        <v>1608033</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.7492351687533482</v>
+        <v>0.7492351687533481</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.7303927833088127</v>
+        <v>0.7284258413130055</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.7676492876837305</v>
+        <v>0.7659608793634322</v>
       </c>
     </row>
     <row r="26">
@@ -9464,19 +9464,19 @@
         <v>93036</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>72819</v>
+        <v>71592</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>118351</v>
+        <v>118346</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.09418542237433929</v>
+        <v>0.09418542237433927</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.07371796191953368</v>
+        <v>0.07247609083261282</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1198125024372622</v>
+        <v>0.119807984885836</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>96</v>
@@ -9485,19 +9485,19 @@
         <v>71856</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>58061</v>
+        <v>58138</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>86599</v>
+        <v>87871</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.06464384598897784</v>
+        <v>0.06464384598897782</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.05223352916964375</v>
+        <v>0.05230299878775098</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.07790689416067263</v>
+        <v>0.07905122585027087</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>173</v>
@@ -9506,19 +9506,19 @@
         <v>164892</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>137313</v>
+        <v>139669</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>192178</v>
+        <v>193167</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.07854382207820475</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.06540702333877556</v>
+        <v>0.06652893648273156</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.09154071766514993</v>
+        <v>0.09201198566468043</v>
       </c>
     </row>
     <row r="27">
@@ -9610,19 +9610,19 @@
         <v>9323</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>4308</v>
+        <v>4483</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>17672</v>
+        <v>18867</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.002644996859130937</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.001222278229938988</v>
+        <v>0.001271736425527183</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.005013859304403931</v>
+        <v>0.005352847101428547</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>16</v>
@@ -9631,19 +9631,19 @@
         <v>10892</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>5948</v>
+        <v>6262</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>17636</v>
+        <v>18469</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.002922038230535255</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.001595531619960922</v>
+        <v>0.001679896772497874</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.004731163103551109</v>
+        <v>0.004954493882325313</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>25</v>
@@ -9652,19 +9652,19 @@
         <v>20215</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>13579</v>
+        <v>12956</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>30267</v>
+        <v>30648</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.002787394608488366</v>
+        <v>0.002787394608488365</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.001872383528241034</v>
+        <v>0.001786457999679144</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.004173378894131919</v>
+        <v>0.004225851903874613</v>
       </c>
     </row>
     <row r="29">
@@ -9681,19 +9681,19 @@
         <v>28545</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>18453</v>
+        <v>18418</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>41231</v>
+        <v>40765</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.008098653349072869</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.005235301518440521</v>
+        <v>0.005225247778811747</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.01169779771196726</v>
+        <v>0.01156550334088868</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>52</v>
@@ -9702,19 +9702,19 @@
         <v>36712</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>27200</v>
+        <v>28588</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>48034</v>
+        <v>51289</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.009848423554772633</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.007296622780609741</v>
+        <v>0.007669149410160164</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01288574216018991</v>
+        <v>0.01375879790788537</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>81</v>
@@ -9723,19 +9723,19 @@
         <v>65257</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>49514</v>
+        <v>52479</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>81394</v>
+        <v>81298</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.008998025662750526</v>
+        <v>0.008998025662750524</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.006827227364254188</v>
+        <v>0.007236107260722774</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01122299621391793</v>
+        <v>0.0112097009519325</v>
       </c>
     </row>
     <row r="30">
@@ -9752,19 +9752,19 @@
         <v>268203</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>236060</v>
+        <v>235464</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>304806</v>
+        <v>307753</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.07609208965803015</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.06697277163718648</v>
+        <v>0.06680364658473011</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.08647681593506712</v>
+        <v>0.08731279141655274</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>450</v>
@@ -9773,19 +9773,19 @@
         <v>330699</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>300316</v>
+        <v>300168</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>366857</v>
+        <v>363219</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.08871388597950343</v>
+        <v>0.08871388597950344</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.08056325178302565</v>
+        <v>0.0805235602021341</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.09841366115791676</v>
+        <v>0.09743763434145968</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>702</v>
@@ -9794,19 +9794,19 @@
         <v>598902</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>557487</v>
+        <v>557808</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>648061</v>
+        <v>648569</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.08257962392020592</v>
+        <v>0.08257962392020589</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.07686906279194643</v>
+        <v>0.07691332382263691</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.08935782170841143</v>
+        <v>0.08942793204001268</v>
       </c>
     </row>
     <row r="31">
@@ -9823,19 +9823,19 @@
         <v>2487135</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>2424505</v>
+        <v>2422494</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>2547826</v>
+        <v>2546599</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.7056266517569663</v>
+        <v>0.7056266517569665</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.6878578125621593</v>
+        <v>0.6872871836033267</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.7228453325157914</v>
+        <v>0.7224972469487683</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>3823</v>
@@ -9844,19 +9844,19 @@
         <v>2655986</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>2609039</v>
+        <v>2604488</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>2705650</v>
+        <v>2704217</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.7124987479840782</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.6999047934649415</v>
+        <v>0.6986837976071384</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.7258217072653917</v>
+        <v>0.7254371976516537</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>6255</v>
@@ -9865,19 +9865,19 @@
         <v>5143121</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>5060228</v>
+        <v>5071266</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>5223242</v>
+        <v>5226310</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.7091588716241584</v>
+        <v>0.7091588716241581</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.6977291549650859</v>
+        <v>0.6992511786057446</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.7202063993177082</v>
+        <v>0.7206293424271756</v>
       </c>
     </row>
     <row r="32">
@@ -9894,19 +9894,19 @@
         <v>731512</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>677310</v>
+        <v>673477</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>788790</v>
+        <v>785198</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2075376083767997</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1921599360686789</v>
+        <v>0.1910726212225355</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2237880256625119</v>
+        <v>0.2227691502958623</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1010</v>
@@ -9915,19 +9915,19 @@
         <v>693416</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>651788</v>
+        <v>649236</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>738558</v>
+        <v>734565</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1860169042511104</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1748496589650281</v>
+        <v>0.1741649887790623</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1981266490546538</v>
+        <v>0.1970554117579284</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1657</v>
@@ -9936,19 +9936,19 @@
         <v>1424928</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1352803</v>
+        <v>1351502</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1493187</v>
+        <v>1490660</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.196476084184397</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1865311501829372</v>
+        <v>0.1863517734510907</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2058879800195927</v>
+        <v>0.2055395325973314</v>
       </c>
     </row>
     <row r="33">
